--- a/Just After the End/dev/sacramento-valley.xlsx
+++ b/Just After the End/dev/sacramento-valley.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poom\Documents\Gitpoom\JAtE\Just After the End\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B23B43-7DB4-4E18-8598-5FFE8E46EF5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8AE5C-96A4-4CE6-9A45-680CFB25F4E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2400" windowWidth="15375" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1530" windowWidth="15375" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
